--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="105">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -95,7 +95,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Note: these are example control signals from the text and your skeleton code; you will need to add more control signals; you may rename any control signals, except those given in the skeleton code.</t>
+    <t xml:space="preserve">ALU_op</t>
   </si>
   <si>
     <t xml:space="preserve">addi</t>
@@ -258,7 +258,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Note: other signals you may have must be correctly assigned for the add; if you redefined these signals, you probably will need to change the sample values</t>
+    <t xml:space="preserve">0000</t>
   </si>
   <si>
     <t xml:space="preserve">add</t>
@@ -291,6 +291,9 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
+    <t xml:space="preserve">0010</t>
+  </si>
+  <si>
     <t xml:space="preserve">andi</t>
   </si>
   <si>
@@ -321,6 +324,9 @@
     <t xml:space="preserve">011</t>
   </si>
   <si>
+    <t xml:space="preserve">XXXX</t>
+  </si>
+  <si>
     <t xml:space="preserve">lw</t>
   </si>
   <si>
@@ -342,6 +348,9 @@
     <t xml:space="preserve">100</t>
   </si>
   <si>
+    <t xml:space="preserve">0100</t>
+  </si>
+  <si>
     <t xml:space="preserve">xori</t>
   </si>
   <si>
@@ -354,6 +363,9 @@
     <t xml:space="preserve">110</t>
   </si>
   <si>
+    <t xml:space="preserve">0011</t>
+  </si>
+  <si>
     <t xml:space="preserve">ori</t>
   </si>
   <si>
@@ -366,12 +378,21 @@
     <t xml:space="preserve">01</t>
   </si>
   <si>
+    <t xml:space="preserve">0110</t>
+  </si>
+  <si>
     <t xml:space="preserve">slti</t>
   </si>
   <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
     <t xml:space="preserve">sltiu</t>
   </si>
   <si>
+    <t xml:space="preserve">1011</t>
+  </si>
+  <si>
     <t xml:space="preserve">sll</t>
   </si>
   <si>
@@ -381,12 +402,18 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
+    <t xml:space="preserve">0111</t>
+  </si>
+  <si>
     <t xml:space="preserve">srl</t>
   </si>
   <si>
     <t xml:space="preserve">101</t>
   </si>
   <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">sra</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t xml:space="preserve">sub</t>
   </si>
   <si>
+    <t xml:space="preserve">0001</t>
+  </si>
+  <si>
     <t xml:space="preserve">beq</t>
   </si>
   <si>
@@ -460,6 +490,9 @@
   </si>
   <si>
     <t xml:space="preserve">srai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001</t>
   </si>
   <si>
     <t xml:space="preserve">auipc</t>
@@ -556,7 +589,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,6 +608,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -597,9 +634,9 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J34" activeCellId="0" sqref="J34"/>
+      <selection pane="topRight" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -672,7 +709,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -707,7 +744,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -737,9 +774,12 @@
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -769,92 +809,101 @@
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
+      <c r="A6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>30</v>
@@ -865,16 +914,19 @@
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
+      <c r="A9" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
@@ -897,28 +949,31 @@
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
+      <c r="A10" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>27</v>
@@ -929,16 +984,19 @@
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
+      <c r="A11" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -961,28 +1019,31 @@
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>27</v>
@@ -993,16 +1054,19 @@
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
+      <c r="A13" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -1011,7 +1075,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>29</v>
@@ -1025,28 +1089,31 @@
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>58</v>
+      <c r="A14" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>27</v>
@@ -1057,28 +1124,31 @@
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
+      <c r="A15" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>27</v>
@@ -1089,16 +1159,19 @@
       <c r="J15" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
+      <c r="A16" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
@@ -1107,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>29</v>
@@ -1121,16 +1194,19 @@
       <c r="J16" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
+      <c r="A17" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -1139,7 +1215,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>29</v>
@@ -1153,25 +1229,28 @@
       <c r="J17" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K17" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
+      <c r="A18" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>29</v>
@@ -1185,28 +1264,31 @@
       <c r="J18" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
+      <c r="A19" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>27</v>
@@ -1217,19 +1299,22 @@
       <c r="J19" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>69</v>
+      <c r="A20" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>27</v>
@@ -1249,19 +1334,22 @@
       <c r="J20" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K20" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>70</v>
+      <c r="A21" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>27</v>
@@ -1270,7 +1358,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>27</v>
@@ -1281,19 +1369,22 @@
       <c r="J21" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>72</v>
+      <c r="A22" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>27</v>
@@ -1302,7 +1393,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>27</v>
@@ -1313,19 +1404,22 @@
       <c r="J22" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>73</v>
+      <c r="A23" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -1334,7 +1428,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>27</v>
@@ -1345,19 +1439,22 @@
       <c r="J23" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K23" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>74</v>
+      <c r="A24" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>27</v>
@@ -1366,30 +1463,33 @@
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>27</v>
@@ -1398,7 +1498,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>27</v>
@@ -1409,19 +1509,22 @@
       <c r="J25" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K25" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>76</v>
+      <c r="A26" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>27</v>
@@ -1430,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>27</v>
@@ -1441,31 +1544,34 @@
       <c r="J26" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K26" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>77</v>
+      <c r="A27" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>27</v>
@@ -1473,28 +1579,31 @@
       <c r="J27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K27" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>80</v>
+      <c r="A28" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>27</v>
@@ -1505,28 +1614,31 @@
       <c r="J28" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K28" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>82</v>
+      <c r="A29" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>30</v>
@@ -1537,28 +1649,31 @@
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K29" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>84</v>
+      <c r="A30" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>30</v>
@@ -1569,28 +1684,31 @@
       <c r="J30" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>85</v>
+      <c r="A31" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
@@ -1601,28 +1719,31 @@
       <c r="J31" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K31" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>86</v>
+      <c r="A32" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>30</v>
@@ -1633,28 +1754,31 @@
       <c r="J32" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K32" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>87</v>
+      <c r="A33" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>27</v>
@@ -1665,28 +1789,31 @@
       <c r="J33" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K33" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>88</v>
+      <c r="A34" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>27</v>
@@ -1697,28 +1824,31 @@
       <c r="J34" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K34" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>89</v>
+      <c r="A35" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>27</v>
@@ -1729,28 +1859,31 @@
       <c r="J35" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K35" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>90</v>
+      <c r="A36" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>27</v>
@@ -1760,20 +1893,23 @@
       </c>
       <c r="J36" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>27</v>
@@ -1792,6 +1928,9 @@
       </c>
       <c r="J37" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
